--- a/画面設計/【画面設計】15_直近で閲覧した料理一覧.xlsx
+++ b/画面設計/【画面設計】15_直近で閲覧した料理一覧.xlsx
@@ -502,7 +502,7 @@
     <t xml:space="preserve">        リストの行数分、以降の処理を繰り返す。</t>
   </si>
   <si>
-    <t xml:space="preserve">　・API「レシピ情報取得（料理ID）」を受け取った変数.料理IDをキーとして実行する。</t>
+    <t xml:space="preserve">　   ・API「レシピ情報取得（料理ID）」を受け取った変数.料理IDをキーとして実行する。</t>
   </si>
   <si>
     <t xml:space="preserve">          　取得NG→ 変数.レシピ情報を未設定にする。</t>
@@ -537,13 +537,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">　(4)  変数.レシピ情報が未設定の場合</t>
+    <t xml:space="preserve">　(4) 変数.レシピ情報が未設定の場合</t>
   </si>
   <si>
-    <t xml:space="preserve">　　・直近で閲覧した料理なしのラベルを表示する。処理を止める。</t>
+    <t xml:space="preserve">　   ・直近で閲覧した料理なしのラベルを表示する。処理を止める。</t>
   </si>
   <si>
-    <t>2.2 料理詳細リンクをクリック時</t>
+    <t>2.2 行単位の料理画像または料理名リンクをクリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　(1)  対象行.変数.料理IDを渡して、「04_レシピ表示」画面を開く。</t>
@@ -30400,8 +30400,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="B30:H32"/>
@@ -31453,7 +31453,7 @@
     <row r="41" ht="18.75" customHeight="1">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="73" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="43"/>
@@ -51925,10 +51925,10 @@
   <mergeCells count="6">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
